--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_beg.xlsx
@@ -1280,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I mean, I guess I felt something like "Wow, that’s big." But what’s a big thing got to do with me?
+    <t xml:space="preserve">[name="Gavial"]  I mean, I guess I felt something like 'Wow, that’s big.' But what’s a big thing got to do with me?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_beg.xlsx
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Zumama, you’ve got a very unique tribe here.
+    <t xml:space="preserve">[name="Gavial"]  Zumama, you've got a very unique tribe here.
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  This is my people’s masterpiece.
+    <t xml:space="preserve">[name="Eunectes"]  This is my people's masterpiece.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Look, it’s Gavial!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  The Great Chief wasn’t lying. She’s planning to duel Gavial again with the Big Ugly.
+    <t xml:space="preserve">[name="Archosauria A"]  Look, it's Gavial!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  The Great Chief wasn't lying. She's planning to duel Gavial again with the Big Ugly.
 </t>
   </si>
   <si>
@@ -1148,11 +1148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Wow, there’s so many people!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Many of them are from other tribes who’ve came here after the ceremony. They will be joining us.
+    <t xml:space="preserve">[name="Ceobe"]  Wow, there's so many people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Many of them are from other tribes who've came here after the ceremony. They will be joining us.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Gavial, if you just left without a fuss, I wouldn’t have cared. But since you’re standing before me once again, I will defeat you right here and now.
+    <t xml:space="preserve">[name="Eunectes"]  Gavial, if you just left without a fuss, I wouldn't have cared. But since you're standing before me once again, I will defeat you right here and now.
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Because you’re too strong, Gavial.
+    <t xml:space="preserve">[name="Eunectes"]  Because you're too strong, Gavial.
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Hmph, another rematch! I’ll definitely win this time!
+    <t xml:space="preserve">[name="Eunectes"]  Hmph, another rematch! I'll definitely win this time!
 </t>
   </si>
   <si>
@@ -1216,11 +1216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Wh- what’s that?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s a big hunk of metal!
+    <t xml:space="preserve">[name="Eunectes"]  Wh- what's that?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  It's a big hunk of metal!
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  What’s a Sargon?
+    <t xml:space="preserve">[name="Eunectes"]  What's a Sargon?
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Then what’s a nomadic city?
+    <t xml:space="preserve">[name="Eunectes"]  Then what's a nomadic city?
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Archosauria"]  Don’t be afraid. It won’t come over here.
+    <t xml:space="preserve">[name="Old Archosauria"]  Don't be afraid. It won't come over here.
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  No. I’m going home.
+    <t xml:space="preserve">[name="Eunectes"]  No. I'm going home.
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I think you’re the weird one, Gavial.
+    <t xml:space="preserve">[name="Eunectes"]  I think you're the weird one, Gavial.
 </t>
   </si>
   <si>
@@ -1280,15 +1280,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I mean, I guess I felt something like 'Wow, that’s big.' But what’s a big thing got to do with me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  That’s our Gavial.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  But that’s the day I lost interest in fighting with you.
+    <t xml:space="preserve">[name="Gavial"]  I mean, I guess I felt something like 'Wow, that's big.' But what's a big thing got to do with me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  That's our Gavial.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  But that's the day I lost interest in fighting with you.
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  That’s right!
+    <t xml:space="preserve">[name="High Priest"]  That's right!
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  This feller’s got the same energy as my Baws, the Emperor...
+    <t xml:space="preserve">[name="Croissant"]  This feller's got the same energy as my Baws, the Emperor...
 </t>
   </si>
   <si>
@@ -1328,15 +1328,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Of course, of course I do. Though it’s been a couple of decades since we last met... Eh, was it a few decades? Or a few centuries?  Doesn’t matter. I can smell him on you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  What’s that about a few centuries...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Lordy loo! Who’da thunk I’d meet a friend of the Baws out here!
+    <t xml:space="preserve">[name="High Priest"]  Of course, of course I do. Though it's been a couple of decades since we last met... Eh, was it a few decades? Or a few centuries?  Doesn't matter. I can smell him on you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  What's that about a few centuries...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Lordy loo! Who'da thunk I'd meet a friend of the Baws out here!
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, don’t you know, Gavial? Whenever you came to look for Zumama, I was always there watching!
+    <t xml:space="preserve">[name="High Priest"]  Oh, don't you know, Gavial? Whenever you came to look for Zumama, I was always there watching!
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Hahaha, I wouldn’t normally show myself to you, but since I want to pilot the Big Ugly, I have no choice!
+    <t xml:space="preserve">[name="High Priest"]  Hahaha, I wouldn't normally show myself to you, but since I want to pilot the Big Ugly, I have no choice!
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Speaking of the Big Ugly, shouldn’t somebody be driving it?  ‘cause I’m pretty sure it’s about to crash into that house.
+    <t xml:space="preserve">[name="Utage"]  Speaking of the Big Ugly, shouldn't somebody be driving it?  'cause I'm pretty sure it's about to crash into that house.
 </t>
   </si>
   <si>
@@ -1376,11 +1376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  He’n the Boss really are birds of a feather, huh...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, right, our conversation. Zumama, let’s get to the point, if we’re gonna fight anyway do we really have to talk about all this stuff?
+    <t xml:space="preserve">[name="Croissant"]  He'n the Boss really are birds of a feather, huh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, right, our conversation. Zumama, let's get to the point, if we're gonna fight anyway do we really have to talk about all this stuff?
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’ve tried so many times to teach people about the charm of the machines. But in the end, they’re never interested. 
+    <t xml:space="preserve">[name="Eunectes"]  I've tried so many times to teach people about the charm of the machines. But in the end, they're never interested. 
 </t>
   </si>
   <si>
@@ -1412,15 +1412,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  You teach them that, in this place, you get what you want when you’re strong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  It’s your strength that stands in the way of progress.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  So I decided to change the way they think. I’m going to use an even greater power to destroy this blind worship of strength that you created.
+    <t xml:space="preserve">[name="Eunectes"]  You teach them that, in this place, you get what you want when you're strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  It's your strength that stands in the way of progress.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  So I decided to change the way they think. I'm going to use an even greater power to destroy this blind worship of strength that you created.
 </t>
   </si>
   <si>
@@ -1436,23 +1436,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Sounds like yer talkin’ sense, but it still don’t feel right, somehow...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Hell yeah! That big clanker’s badass!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Honestly, I’m almost convinced myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But I never wanted to be anyone’s role model. When I say fists solve problems, that’s just me talking. It’s got nothing to do with anyone else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I know, I’m not blaming you.
+    <t xml:space="preserve">[name="Croissant"]  Sounds like yer talkin' sense, but it still don't feel right, somehow...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Hell yeah! That big clanker's badass!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Honestly, I'm almost convinced myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But I never wanted to be anyone's role model. When I say fists solve problems, that's just me talking. It's got nothing to do with anyone else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I know, I'm not blaming you.
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  High Priest, it’s time to fight!
+    <t xml:space="preserve">[name="Eunectes"]  High Priest, it's time to fight!
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Step back, everybody. This one’s mine.
+    <t xml:space="preserve">[name="Gavial"]  Step back, everybody. This one's mine.
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Let’s test its performance first!
+    <t xml:space="preserve">[name="High Priest"]  Let's test its performance first!
 </t>
   </si>
   <si>
@@ -1504,11 +1504,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Heh, don’t think you’ll hit me a second time!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Ah, those are the reflexes I’d expect from Gavial! No problem. Have a taste of my great iron fist!
+    <t xml:space="preserve">[name="Gavial"]  Heh, don't think you'll hit me a second time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Ah, those are the reflexes I'd expect from Gavial! No problem. Have a taste of my great iron fist!
 </t>
   </si>
   <si>
@@ -1516,7 +1516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Wow, Gavial’s strong!
+    <t xml:space="preserve">[name="Ceobe"]  Wow, Gavial's strong!
 </t>
   </si>
   <si>
@@ -1528,11 +1528,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  ...You may be my opponent, but I can’t help but cheer for you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  It’s not over yet though! The Big Ugly has a max performance mode for just such an occasion!
+    <t xml:space="preserve">[name="High Priest"]  ...You may be my opponent, but I can't help but cheer for you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  It's not over yet though! The Big Ugly has a max performance mode for just such an occasion!
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  And it’s suppressing Gavial’s strength?!
+    <t xml:space="preserve">[name="Blaze"]  And it's suppressing Gavial's strength?!
 </t>
   </si>
   <si>
@@ -1556,23 +1556,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  High Priest, what’s going on?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Waah, my butt’s being cooked!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’m talking about the Big Ugly!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, I was just sharing my status as well. I think the engine output is too high. I’m losing control of the Big Ugly!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  It’s actually quite exhilarating!
+    <t xml:space="preserve">[name="Eunectes"]  High Priest, what's going on?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Waah, my butt's being cooked!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I'm talking about the Big Ugly!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, I was just sharing my status as well. I think the engine output is too high. I'm losing control of the Big Ugly!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  It's actually quite exhilarating!
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Aren’t we fighting? Let’s just fight like this! Come, Gavial, I’ll finish this once and for all——
+    <t xml:space="preserve">[name="High Priest"]  Aren't we fighting? Let's just fight like this! Come, Gavial, I'll finish this once and for all——
 </t>
   </si>
   <si>
@@ -1588,19 +1588,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, fine. What a shame. Looks like I’ll have to change tactics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Zumama, don’t worry about me, I’ll do my best to stabilize it. You find a way to stop the Big Ugly in the meantime!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  ...Gavial, you and your people get out of here. This isn’t your business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  What are you talking about? Don’t you want to beat me?
+    <t xml:space="preserve">[name="High Priest"]  Oh, fine. What a shame. Looks like I'll have to change tactics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Zumama, don't worry about me, I'll do my best to stabilize it. You find a way to stop the Big Ugly in the meantime!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  ...Gavial, you and your people get out of here. This isn't your business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  What are you talking about? Don't you want to beat me?
 </t>
   </si>
   <si>
@@ -1608,11 +1608,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Come on. Of course I’m going to help. Right, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Fight the monster! I’ll help!
+    <t xml:space="preserve">[name="Gavial"]  Come on. Of course I'm going to help. Right, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Fight the monster! I'll help!
 </t>
   </si>
   <si>
@@ -1624,11 +1624,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  I’m gettin’ overtime for this one, Baws! Triple rate!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Doctor, don’t just sit there and enjoy the show! It’s time to take command.
+    <t xml:space="preserve">[name="Croissant"]  I'm gettin' overtime for this one, Baws! Triple rate!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Doctor, don't just sit there and enjoy the show! It's time to take command.
 </t>
   </si>
   <si>
